--- a/RobotSoftware/export/product_data.xlsx
+++ b/RobotSoftware/export/product_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,114 +468,1058 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28/03/2023 01:02:08</t>
+          <t>28/03/2023 17:06:01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SP0000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28/03/2023 01:02:24</t>
+          <t>28/03/2023 17:06:32</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SP0000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>SP0002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28/03/2023 01:02:30</t>
+          <t>28/03/2023 17:06:54</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SP0000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>SP0003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28/03/2023 01:04:52</t>
+          <t>28/03/2023 17:07:06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SP0000</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>SP0004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28/03/2023 01:04:53</t>
+          <t>28/03/2023 17:08:02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SP0000</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>SP0005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28/03/2023 01:04:54</t>
+          <t>28/03/2023 17:08:11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SP0000</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>SP0006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>28/03/2023 01:04:55</t>
+          <t>28/03/2023 17:08:32</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SP0000</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>SP0007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:08:45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SP0008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:08:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SP0009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:08:57</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SP0010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:09:20</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SP0011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:09:35</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SP0012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:09:35</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SP0013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:10:17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SP0014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:10:38</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SP0015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:12:35</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:12:53</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SP0002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:13:09</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SP0003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:13:28</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SP0004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:13:44</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SP0005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:14:08</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SP0006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:14:26</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SP0007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:14:43</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SP0008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Color Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:15:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SP0009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Color Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:15:13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SP0010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:15:25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SP0011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:15:39</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SP0012</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:15:53</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SP0013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:16:05</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SP0014</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:16:17</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SP0015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:16:38</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SP0016</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:16:54</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SP0017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Color Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>28/03/2023 17:17:06</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SP0018</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Color Error</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/RobotSoftware/export/product_data.xlsx
+++ b/RobotSoftware/export/product_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29/03/2023 12:21:42</t>
+          <t>09/04/2023 10:14:33</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SP0001</t>
+          <t>SP0003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -500,22 +500,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29/03/2023 12:21:57</t>
+          <t>09/04/2023 10:15:25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SP0002</t>
+          <t>SP0006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Not Error</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,29 +525,29 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Standards</t>
+          <t>Logo Error</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29/03/2023 12:22:16</t>
+          <t>09/04/2023 10:15:59</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SP0003</t>
+          <t>SP0009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Not Error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,61 +557,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Size Error</t>
+          <t>Standards</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29/03/2023 12:22:32</t>
+          <t>09/04/2023 10:20:48</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SP0004</t>
+          <t>SP0012</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Not Error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Size Error/Color Error</t>
+          <t>Standards</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29/03/2023 12:22:49</t>
+          <t>09/04/2023 10:21:35</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SP0005</t>
+          <t>SP0015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Not Error</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,51 +621,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Size Error</t>
+          <t>Standards</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29/03/2023 12:23:09</t>
+          <t>09/04/2023 10:22:24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SP0006</t>
+          <t>SP0018</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Not Error</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Standards</t>
+          <t>Size Error</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29/03/2023 12:23:46</t>
+          <t>09/04/2023 10:24:55</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SP0007</t>
+          <t>SP0021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,152 +680,152 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Size Error/Color Error</t>
+          <t>Size Error</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>29/03/2023 12:24:04</t>
+          <t>09/04/2023 10:25:32</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SP0008</t>
+          <t>SP0024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Not Error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Color Error</t>
+          <t>Standards</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29/03/2023 12:24:20</t>
+          <t>09/04/2023 10:26:27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SP0009</t>
+          <t>SP0027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Not Error</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Standards</t>
+          <t>Logo Error</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/03/2023 12:24:39</t>
+          <t>09/04/2023 10:27:08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SP0010</t>
+          <t>SP0030</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Not Error</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Standards</t>
+          <t>Color Error</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>29/03/2023 12:24:52</t>
+          <t>09/04/2023 10:27:42</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SP0011</t>
+          <t>SP0033</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Not Error</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Standards</t>
+          <t>Size Error</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>29/03/2023 12:25:10</t>
+          <t>09/04/2023 10:28:15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SP0012</t>
+          <t>SP0036</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -840,12 +840,1516 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:30:42</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SP0039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Standards</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:00:01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SP0041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:09:37</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SP0044</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:11:18</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SP0047</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:13:13</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SP0050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:15:14</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SP0053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:18:53</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SP0056</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:20:09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SP0059</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:14:49</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SP0004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:15:35</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SP0007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:16:14</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SP0010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:21:07</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SP0013</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:21:49</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SP0016</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:22:46</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SP0019</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Size Error/Logo Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:25:07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SP0022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:25:47</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SP0025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Color Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:26:36</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SP0028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:27:18</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SP0031</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:27:51</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SP0034</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:30:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SP0037</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:08:46</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SP0042</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:09:56</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SP0045</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:11:38</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SP0048</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:13:36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SP0051</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:15:48</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SP0054</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:19:17</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SP0057</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:15:06</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SP0005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:15:50</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SP0008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Color Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:20:34</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SP0011</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:21:22</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SP0014</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:22:04</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SP0017</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Size Error/Logo Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:24:42</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SP0020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:25:15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SP0023</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:25:59</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SP0026</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:26:51</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SP0029</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:27:27</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SP0032</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:28:05</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SP0035</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Color Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:30:33</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SP0038</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Size Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10/04/2023 09:59:26</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SP0040</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Color Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:09:04</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SP0043</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:10:56</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SP0046</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Color Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:12:49</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SP0049</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:14:01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SP0052</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Logo Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:16:12</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SP0055</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10/04/2023 10:19:45</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SP0058</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:14:06</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Not Error</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>09/04/2023 10:14:21</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SP0002</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Logo Error</t>
         </is>
       </c>
     </row>
